--- a/REGULAR/MARASIGAN, GINALYN.xlsx
+++ b/REGULAR/MARASIGAN, GINALYN.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\ACCOUNTING\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BF74785-2B00-4A0F-A2B2-792A0D9B9D61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B784610C-A67C-4DC3-A12C-6944DFCAEEFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
   </bookViews>
@@ -25,7 +25,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="68">
   <si>
     <t>PERIOD</t>
   </si>
@@ -160,9 +160,6 @@
     <t>SL EARNED</t>
   </si>
   <si>
-    <t>MARASIGAN, GINALYN</t>
-  </si>
-  <si>
     <t>PERMANENT</t>
   </si>
   <si>
@@ -233,6 +230,15 @@
   </si>
   <si>
     <t>2023</t>
+  </si>
+  <si>
+    <t>ADMIN AIDE III</t>
+  </si>
+  <si>
+    <t>MARASIGAN, GINALYN DADOR</t>
+  </si>
+  <si>
+    <t>4/11,12/2023</t>
   </si>
 </sst>
 </file>
@@ -3016,8 +3022,8 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3576" topLeftCell="A63" activePane="bottomLeft"/>
-      <selection activeCell="B3" sqref="B3:C3"/>
-      <selection pane="bottomLeft" activeCell="B69" sqref="B69"/>
+      <selection activeCell="F3" sqref="F3:G3"/>
+      <selection pane="bottomLeft" activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3040,7 +3046,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="50" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="C2" s="50"/>
       <c r="D2" s="21" t="s">
@@ -3060,7 +3066,9 @@
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="50"/>
+      <c r="B3" s="50" t="s">
+        <v>65</v>
+      </c>
       <c r="C3" s="50"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
@@ -3079,14 +3087,14 @@
         <v>16</v>
       </c>
       <c r="B4" s="50" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C4" s="50"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="55" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G4" s="55"/>
       <c r="H4" s="26" t="s">
@@ -3178,7 +3186,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>43.5</v>
+        <v>42.75</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3188,14 +3196,14 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>52.5</v>
+        <v>52.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B10" s="20"/>
       <c r="C10" s="13"/>
@@ -3413,7 +3421,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B21" s="20"/>
       <c r="C21" s="13"/>
@@ -3434,7 +3442,7 @@
         <v>43831</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C22" s="13">
         <v>1.25</v>
@@ -3450,7 +3458,7 @@
       <c r="I22" s="9"/>
       <c r="J22" s="11"/>
       <c r="K22" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
@@ -3458,7 +3466,7 @@
         <v>43862</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C23" s="13">
         <v>1.25</v>
@@ -3474,7 +3482,7 @@
       <c r="I23" s="9"/>
       <c r="J23" s="11"/>
       <c r="K23" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
@@ -3602,7 +3610,7 @@
         <v>44075</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C30" s="13">
         <v>1.25</v>
@@ -3628,7 +3636,7 @@
         <v>44105</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C31" s="13">
         <v>1.25</v>
@@ -3672,7 +3680,7 @@
         <v>44166</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C33" s="13">
         <v>1.25</v>
@@ -3694,7 +3702,7 @@
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="39"/>
       <c r="B34" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="38"/>
@@ -3715,7 +3723,7 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="47" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B35" s="20"/>
       <c r="C35" s="13"/>
@@ -3736,7 +3744,7 @@
         <v>44197</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C36" s="13">
         <v>1.25</v>
@@ -3920,7 +3928,7 @@
         <v>44470</v>
       </c>
       <c r="B45" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C45" s="13">
         <v>1.25</v>
@@ -3938,13 +3946,13 @@
       <c r="I45" s="9"/>
       <c r="J45" s="11"/>
       <c r="K45" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="39"/>
       <c r="B46" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C46" s="13"/>
       <c r="D46" s="38"/>
@@ -3958,13 +3966,13 @@
       <c r="I46" s="9"/>
       <c r="J46" s="11"/>
       <c r="K46" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="39"/>
       <c r="B47" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C47" s="13"/>
       <c r="D47" s="38">
@@ -3980,7 +3988,7 @@
       <c r="I47" s="9"/>
       <c r="J47" s="11"/>
       <c r="K47" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
@@ -4025,7 +4033,7 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="47" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B50" s="20"/>
       <c r="C50" s="13"/>
@@ -4046,7 +4054,7 @@
         <v>44562</v>
       </c>
       <c r="B51" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C51" s="13">
         <v>1.25</v>
@@ -4068,7 +4076,7 @@
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="39"/>
       <c r="B52" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C52" s="13"/>
       <c r="D52" s="38"/>
@@ -4088,7 +4096,7 @@
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="39"/>
       <c r="B53" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C53" s="13"/>
       <c r="D53" s="38"/>
@@ -4104,13 +4112,13 @@
       <c r="I53" s="9"/>
       <c r="J53" s="11"/>
       <c r="K53" s="48" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="39"/>
       <c r="B54" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C54" s="13"/>
       <c r="D54" s="38">
@@ -4214,7 +4222,7 @@
         <v>44713</v>
       </c>
       <c r="B59" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C59" s="13">
         <v>1.25</v>
@@ -4238,7 +4246,7 @@
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="39"/>
       <c r="B60" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C60" s="13"/>
       <c r="D60" s="38">
@@ -4322,7 +4330,7 @@
         <v>44835</v>
       </c>
       <c r="B64" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C64" s="13">
         <v>1.25</v>
@@ -4368,7 +4376,7 @@
         <v>44896</v>
       </c>
       <c r="B66" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C66" s="13">
         <v>1.25</v>
@@ -4386,12 +4394,12 @@
       <c r="I66" s="9"/>
       <c r="J66" s="11"/>
       <c r="K66" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="47" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -4412,7 +4420,7 @@
         <v>44927</v>
       </c>
       <c r="B68" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C68" s="13">
         <v>1.25</v>
@@ -4434,7 +4442,7 @@
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="39"/>
       <c r="B69" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C69" s="13"/>
       <c r="D69" s="38"/>
@@ -4458,7 +4466,7 @@
         <v>44958</v>
       </c>
       <c r="B70" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C70" s="13">
         <v>1.25</v>
@@ -4483,27 +4491,39 @@
       <c r="A71" s="39">
         <v>44986</v>
       </c>
-      <c r="B71" s="20"/>
-      <c r="C71" s="13"/>
+      <c r="B71" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C71" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D71" s="38"/>
       <c r="E71" s="9"/>
       <c r="F71" s="20"/>
-      <c r="G71" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H71" s="38"/>
+      <c r="G71" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H71" s="38">
+        <v>1</v>
+      </c>
       <c r="I71" s="9"/>
       <c r="J71" s="11"/>
-      <c r="K71" s="20"/>
+      <c r="K71" s="48">
+        <v>44998</v>
+      </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="39">
         <v>45017</v>
       </c>
-      <c r="B72" s="20"/>
+      <c r="B72" s="20" t="s">
+        <v>57</v>
+      </c>
       <c r="C72" s="13"/>
-      <c r="D72" s="38"/>
+      <c r="D72" s="38">
+        <v>2</v>
+      </c>
       <c r="E72" s="9"/>
       <c r="F72" s="20"/>
       <c r="G72" s="13" t="str">
@@ -4513,7 +4533,9 @@
       <c r="H72" s="38"/>
       <c r="I72" s="9"/>
       <c r="J72" s="11"/>
-      <c r="K72" s="20"/>
+      <c r="K72" s="20" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="39">

--- a/REGULAR/MARASIGAN, GINALYN.xlsx
+++ b/REGULAR/MARASIGAN, GINALYN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B784610C-A67C-4DC3-A12C-6944DFCAEEFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="69">
   <si>
     <t>PERIOD</t>
   </si>
@@ -240,11 +239,14 @@
   <si>
     <t>4/11,12/2023</t>
   </si>
+  <si>
+    <t>4/13,14/2023</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -672,7 +674,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="164" formatCode="0.000"/>
@@ -747,7 +748,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="164" formatCode="0.000"/>
@@ -815,7 +815,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1057,7 +1056,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1105,7 +1103,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1148,7 +1146,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1212,7 +1210,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1272,7 +1270,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1338,7 +1336,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1401,7 +1399,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1499,7 +1497,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1558,7 +1556,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1623,7 +1621,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1666,7 +1664,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1741,7 +1739,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1927,7 +1925,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1993,7 +1991,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2051,7 +2049,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2117,7 +2115,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2173,7 +2171,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2248,7 +2246,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2291,7 +2289,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2357,7 +2355,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2413,7 +2411,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2511,7 +2509,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2574,7 +2572,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2640,25 +2638,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K141" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K142" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{29298656-164E-44DD-A190-558D78410746}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{653A013C-2253-41B2-B51E-E0CEE6FCA4B9}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{23618FA7-8FE1-47F3-A791-7E4F2612427B}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{BA6D2C36-5CF4-40D7-AFDD-218AEBB26721}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{44B79BA7-06A4-4888-BFE5-96396FB13C9E}" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{1A20B288-1D72-4858-B3C2-871EB9CF011E}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{16E84B2D-53AC-4AEA-B1BC-1BC1E2E9B51B}" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{A10DEDBF-F571-4518-A832-0B75654FC984}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{9E225A68-4AC2-420E-B4D1-1378612CB5CD}" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{715FA023-3759-440B-8D8E-42D3E30EC36F}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{7E55BDC4-4FFC-4009-94E5-7F3F3565D56A}" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2670,13 +2668,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CB44E398-F318-4683-B466-030B39F69924}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3" xr:uid="{CB44E398-F318-4683-B466-030B39F69924}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{1CAFD6A5-0771-4D4F-B29C-8C8A4BD59DAD}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{D6E424DD-7C72-4461-BBE2-CD59B37123B3}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{20858E5D-6D7D-4382-8DBC-1FD4091C418E}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{7FA7784E-0318-4F9C-9B40-57F4F3F3FD45}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2685,14 +2683,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{CB4120CB-17DA-4A84-90C5-840D28205819}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3" xr:uid="{CB4120CB-17DA-4A84-90C5-840D28205819}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{6D76F81F-2FB2-4658-9985-FB0CE23F1771}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{40B8C089-638A-4D13-9FCC-740888AE7704}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{C3A40ACA-C07A-4798-82C2-714BDF47B4DB}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2996,7 +2994,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D098C40-D36A-4A12-B6E1-6D049DE49862}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3006,7 +3004,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3014,34 +3012,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0FF8E2B-FA0C-43AD-94F6-3305AF75672F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K141"/>
+  <dimension ref="A2:K142"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A63" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A63" activePane="bottomLeft"/>
       <selection activeCell="F3" sqref="F3:G3"/>
-      <selection pane="bottomLeft" activeCell="B73" sqref="B73"/>
+      <selection pane="bottomLeft" activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.77734375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3062,7 +3060,7 @@
       <c r="J2" s="51"/>
       <c r="K2" s="52"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3082,7 +3080,7 @@
       <c r="J3" s="53"/>
       <c r="K3" s="54"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3104,7 +3102,7 @@
       <c r="J4" s="55"/>
       <c r="K4" s="56"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3112,7 +3110,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3125,7 +3123,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="49" t="s">
@@ -3142,7 +3140,7 @@
       <c r="J7" s="49"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3177,7 +3175,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3196,12 +3194,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>52.75</v>
+        <v>50.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="47" t="s">
         <v>43</v>
       </c>
@@ -3219,7 +3217,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="39">
         <v>43542</v>
       </c>
@@ -3239,7 +3237,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="39">
         <v>43556</v>
       </c>
@@ -3259,7 +3257,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="39">
         <v>43586</v>
       </c>
@@ -3279,7 +3277,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="39">
         <v>43617</v>
       </c>
@@ -3299,7 +3297,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="39">
         <v>43647</v>
       </c>
@@ -3319,7 +3317,7 @@
       <c r="J15" s="12"/>
       <c r="K15" s="15"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="39">
         <v>43678</v>
       </c>
@@ -3339,7 +3337,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="39">
         <v>43709</v>
       </c>
@@ -3359,7 +3357,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="39">
         <v>43739</v>
       </c>
@@ -3379,7 +3377,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="39">
         <v>43770</v>
       </c>
@@ -3399,7 +3397,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="39">
         <v>43800</v>
       </c>
@@ -3419,7 +3417,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="47" t="s">
         <v>44</v>
       </c>
@@ -3437,7 +3435,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="39">
         <v>43831</v>
       </c>
@@ -3461,7 +3459,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="39">
         <v>43862</v>
       </c>
@@ -3485,7 +3483,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="39">
         <v>43891</v>
       </c>
@@ -3505,7 +3503,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="39">
         <v>43922</v>
       </c>
@@ -3525,7 +3523,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="39">
         <v>43952</v>
       </c>
@@ -3545,7 +3543,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="39">
         <v>43983</v>
       </c>
@@ -3565,7 +3563,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="39">
         <v>44013</v>
       </c>
@@ -3585,7 +3583,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="39">
         <v>44044</v>
       </c>
@@ -3605,7 +3603,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="39">
         <v>44075</v>
       </c>
@@ -3631,7 +3629,7 @@
         <v>44098</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="39">
         <v>44105</v>
       </c>
@@ -3655,7 +3653,7 @@
         <v>44106</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="39">
         <v>44136</v>
       </c>
@@ -3675,7 +3673,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="39">
         <v>44166</v>
       </c>
@@ -3699,7 +3697,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="39"/>
       <c r="B34" s="20" t="s">
         <v>49</v>
@@ -3721,7 +3719,7 @@
         <v>44182</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="47" t="s">
         <v>52</v>
       </c>
@@ -3739,7 +3737,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="48"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="39">
         <v>44197</v>
       </c>
@@ -3763,7 +3761,7 @@
         <v>44214</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="39">
         <v>44228</v>
       </c>
@@ -3783,7 +3781,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="39">
         <v>44256</v>
       </c>
@@ -3803,7 +3801,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="39">
         <v>44287</v>
       </c>
@@ -3823,7 +3821,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="39">
         <v>44317</v>
       </c>
@@ -3843,7 +3841,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="39">
         <v>44348</v>
       </c>
@@ -3863,7 +3861,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="39">
         <v>44378</v>
       </c>
@@ -3883,7 +3881,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="39">
         <v>44409</v>
       </c>
@@ -3903,7 +3901,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="39">
         <v>44440</v>
       </c>
@@ -3923,7 +3921,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="39">
         <v>44470</v>
       </c>
@@ -3949,7 +3947,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="39"/>
       <c r="B46" s="20" t="s">
         <v>55</v>
@@ -3969,7 +3967,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="39"/>
       <c r="B47" s="20" t="s">
         <v>57</v>
@@ -3991,7 +3989,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="39">
         <v>44501</v>
       </c>
@@ -4011,7 +4009,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="39">
         <v>44531</v>
       </c>
@@ -4031,7 +4029,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="47" t="s">
         <v>59</v>
       </c>
@@ -4049,7 +4047,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="39">
         <v>44562</v>
       </c>
@@ -4073,7 +4071,7 @@
         <v>44568</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="39"/>
       <c r="B52" s="20" t="s">
         <v>49</v>
@@ -4093,7 +4091,7 @@
         <v>44574</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="39"/>
       <c r="B53" s="20" t="s">
         <v>60</v>
@@ -4115,7 +4113,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="39"/>
       <c r="B54" s="20" t="s">
         <v>61</v>
@@ -4137,7 +4135,7 @@
         <v>44672</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="39">
         <v>44593</v>
       </c>
@@ -4157,7 +4155,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="39">
         <v>44621</v>
       </c>
@@ -4177,7 +4175,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="39">
         <v>44652</v>
       </c>
@@ -4197,7 +4195,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="39">
         <v>44682</v>
       </c>
@@ -4217,7 +4215,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="39">
         <v>44713</v>
       </c>
@@ -4243,7 +4241,7 @@
         <v>44726</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="39"/>
       <c r="B60" s="20" t="s">
         <v>61</v>
@@ -4265,7 +4263,7 @@
         <v>44672</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="39">
         <v>44743</v>
       </c>
@@ -4285,7 +4283,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="39">
         <v>44774</v>
       </c>
@@ -4305,7 +4303,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="39">
         <v>44805</v>
       </c>
@@ -4325,7 +4323,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="39">
         <v>44835</v>
       </c>
@@ -4351,7 +4349,7 @@
         <v>44855</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="39">
         <v>44866</v>
       </c>
@@ -4371,7 +4369,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="39">
         <v>44896</v>
       </c>
@@ -4397,7 +4395,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="47" t="s">
         <v>64</v>
       </c>
@@ -4415,7 +4413,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="39">
         <v>44927</v>
       </c>
@@ -4439,7 +4437,7 @@
         <v>44935</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="39"/>
       <c r="B69" s="20" t="s">
         <v>49</v>
@@ -4461,7 +4459,7 @@
         <v>44950</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="39">
         <v>44958</v>
       </c>
@@ -4487,7 +4485,7 @@
         <v>44958</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="39">
         <v>44986</v>
       </c>
@@ -4513,7 +4511,7 @@
         <v>44998</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="39">
         <v>45017</v>
       </c>
@@ -4537,11 +4535,11 @@
         <v>67</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A73" s="39">
-        <v>45047</v>
-      </c>
-      <c r="B73" s="20"/>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73" s="39"/>
+      <c r="B73" s="20" t="s">
+        <v>60</v>
+      </c>
       <c r="C73" s="13"/>
       <c r="D73" s="38"/>
       <c r="E73" s="9"/>
@@ -4550,14 +4548,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H73" s="38"/>
+      <c r="H73" s="38">
+        <v>2</v>
+      </c>
       <c r="I73" s="9"/>
       <c r="J73" s="11"/>
-      <c r="K73" s="20"/>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K73" s="20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="39">
-        <v>45078</v>
+        <v>45047</v>
       </c>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -4573,9 +4575,9 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="39">
-        <v>45108</v>
+        <v>45078</v>
       </c>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -4591,9 +4593,9 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="39">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -4609,9 +4611,9 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="39">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -4627,9 +4629,9 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="39">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -4645,9 +4647,9 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="39">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -4663,9 +4665,9 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="39">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -4681,9 +4683,9 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="39">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -4699,9 +4701,9 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="39">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -4717,9 +4719,9 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="39">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -4735,9 +4737,9 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="39">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -4753,9 +4755,9 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="39">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -4771,9 +4773,9 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="39">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -4789,9 +4791,9 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="39">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -4807,9 +4809,9 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="39">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -4825,9 +4827,9 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="39">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -4843,9 +4845,9 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="39">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -4861,9 +4863,9 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="39">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -4879,9 +4881,9 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="39">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -4897,9 +4899,9 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="39">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -4915,9 +4917,9 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="39">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -4933,9 +4935,9 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="39">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -4951,9 +4953,9 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="39">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -4969,9 +4971,9 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="39">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -4987,9 +4989,9 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="39">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -5005,9 +5007,9 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="39">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -5023,9 +5025,9 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="39">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -5041,9 +5043,9 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="39">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -5059,9 +5061,9 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="39">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -5077,9 +5079,9 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="39">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -5095,9 +5097,9 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="39">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -5113,9 +5115,9 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="39">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -5131,9 +5133,9 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="39">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -5149,9 +5151,9 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="39">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -5167,9 +5169,9 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="39">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -5185,9 +5187,9 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="39">
-        <v>46143</v>
+        <v>46113</v>
       </c>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -5203,9 +5205,9 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="39">
-        <v>46174</v>
+        <v>46143</v>
       </c>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -5221,9 +5223,9 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="39">
-        <v>46204</v>
+        <v>46174</v>
       </c>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -5239,9 +5241,9 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="39">
-        <v>46235</v>
+        <v>46204</v>
       </c>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -5257,9 +5259,9 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="39">
-        <v>46266</v>
+        <v>46235</v>
       </c>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -5275,9 +5277,9 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="39">
-        <v>46296</v>
+        <v>46266</v>
       </c>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -5293,9 +5295,9 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="39">
-        <v>46327</v>
+        <v>46296</v>
       </c>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -5311,9 +5313,9 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="39">
-        <v>46357</v>
+        <v>46327</v>
       </c>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -5329,9 +5331,9 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="39">
-        <v>46388</v>
+        <v>46357</v>
       </c>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -5347,9 +5349,9 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="39">
-        <v>46419</v>
+        <v>46388</v>
       </c>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -5365,9 +5367,9 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="39">
-        <v>46447</v>
+        <v>46419</v>
       </c>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -5383,9 +5385,9 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="39">
-        <v>46478</v>
+        <v>46447</v>
       </c>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -5401,9 +5403,9 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="39">
-        <v>46508</v>
+        <v>46478</v>
       </c>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -5419,9 +5421,9 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="39">
-        <v>46539</v>
+        <v>46508</v>
       </c>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -5437,9 +5439,9 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="39">
-        <v>46569</v>
+        <v>46539</v>
       </c>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -5455,8 +5457,10 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A124" s="39"/>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A124" s="39">
+        <v>46569</v>
+      </c>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
       <c r="D124" s="38"/>
@@ -5471,7 +5475,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="39"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -5487,7 +5491,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="39"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -5503,7 +5507,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="39"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -5519,7 +5523,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="39"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -5535,7 +5539,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="39"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -5551,7 +5555,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="39"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -5567,7 +5571,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="39"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -5583,7 +5587,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="39"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -5599,7 +5603,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="39"/>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -5615,7 +5619,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="39"/>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -5631,7 +5635,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="39"/>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -5647,7 +5651,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="39"/>
       <c r="B136" s="20"/>
       <c r="C136" s="13"/>
@@ -5663,7 +5667,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="39"/>
       <c r="B137" s="20"/>
       <c r="C137" s="13"/>
@@ -5679,7 +5683,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="39"/>
       <c r="B138" s="20"/>
       <c r="C138" s="13"/>
@@ -5695,7 +5699,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="39"/>
       <c r="B139" s="20"/>
       <c r="C139" s="13"/>
@@ -5711,7 +5715,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="39"/>
       <c r="B140" s="20"/>
       <c r="C140" s="13"/>
@@ -5727,21 +5731,37 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A141" s="40"/>
-      <c r="B141" s="15"/>
-      <c r="C141" s="41"/>
-      <c r="D141" s="42"/>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A141" s="39"/>
+      <c r="B141" s="20"/>
+      <c r="C141" s="13"/>
+      <c r="D141" s="38"/>
       <c r="E141" s="9"/>
-      <c r="F141" s="15"/>
-      <c r="G141" s="41" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H141" s="42"/>
+      <c r="F141" s="20"/>
+      <c r="G141" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H141" s="38"/>
       <c r="I141" s="9"/>
-      <c r="J141" s="12"/>
-      <c r="K141" s="15"/>
+      <c r="J141" s="11"/>
+      <c r="K141" s="20"/>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A142" s="40"/>
+      <c r="B142" s="15"/>
+      <c r="C142" s="41"/>
+      <c r="D142" s="42"/>
+      <c r="E142" s="9"/>
+      <c r="F142" s="15"/>
+      <c r="G142" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H142" s="42"/>
+      <c r="I142" s="9"/>
+      <c r="J142" s="12"/>
+      <c r="K142" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -5758,10 +5778,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{3C67B38A-DE91-4BA1-85D0-F5C61D6395E6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{C9F25C0C-606E-415B-87B4-B098DE141EB5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5784,7 +5804,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CB8F789-193C-43F9-8D48-B0DEE5C76ADA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -5792,21 +5812,21 @@
       <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.21875" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="36" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="36" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="59" t="s">
         <v>32</v>
       </c>
@@ -5819,7 +5839,7 @@
       <c r="K1" s="60"/>
       <c r="L1" s="60"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -5848,7 +5868,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3"/>
@@ -5870,17 +5890,17 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="37" t="s">
         <v>28</v>
       </c>
@@ -5901,7 +5921,7 @@
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="36">
         <v>1</v>
       </c>
@@ -5928,7 +5948,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="36">
         <v>2</v>
       </c>
@@ -5954,7 +5974,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="36">
         <v>3</v>
       </c>
@@ -5980,7 +6000,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="36">
         <v>4</v>
       </c>
@@ -6006,7 +6026,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="36">
         <v>5</v>
       </c>
@@ -6032,7 +6052,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="36">
         <v>6</v>
       </c>
@@ -6058,7 +6078,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="36">
         <v>7</v>
       </c>
@@ -6084,7 +6104,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="36">
         <v>8</v>
       </c>
@@ -6110,7 +6130,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="36">
         <v>9</v>
       </c>
@@ -6130,7 +6150,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="36">
         <v>10</v>
       </c>
@@ -6150,7 +6170,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="36">
         <v>11</v>
       </c>
@@ -6170,7 +6190,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="36">
         <v>12</v>
       </c>
@@ -6191,7 +6211,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="36">
         <v>13</v>
       </c>
@@ -6212,7 +6232,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="36">
         <v>14</v>
       </c>
@@ -6233,7 +6253,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="36">
         <v>15</v>
       </c>
@@ -6254,7 +6274,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="36">
         <v>16</v>
       </c>
@@ -6275,7 +6295,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="36">
         <v>17</v>
       </c>
@@ -6296,7 +6316,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="36">
         <v>18</v>
       </c>
@@ -6317,7 +6337,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="36">
         <v>19</v>
       </c>
@@ -6338,7 +6358,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="36">
         <v>20</v>
       </c>
@@ -6359,7 +6379,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="36">
         <v>21</v>
       </c>
@@ -6380,7 +6400,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="36">
         <v>22</v>
       </c>
@@ -6401,7 +6421,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="36">
         <v>23</v>
       </c>
@@ -6422,7 +6442,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="36">
         <v>24</v>
       </c>
@@ -6443,7 +6463,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="36">
         <v>25</v>
       </c>
@@ -6464,7 +6484,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="36">
         <v>26</v>
       </c>
@@ -6485,7 +6505,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="36">
         <v>27</v>
       </c>
@@ -6506,7 +6526,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="36">
         <v>28</v>
       </c>
@@ -6527,7 +6547,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="36">
         <v>29</v>
       </c>
@@ -6548,7 +6568,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="36">
         <v>30</v>
       </c>
@@ -6569,7 +6589,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="36">
         <v>31</v>
       </c>
@@ -6590,7 +6610,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="36">
         <v>32</v>
       </c>
@@ -6599,7 +6619,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="36">
         <v>33</v>
       </c>
@@ -6608,7 +6628,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="36">
         <v>34</v>
       </c>
@@ -6617,7 +6637,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="36">
         <v>35</v>
       </c>
@@ -6626,7 +6646,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="36">
         <v>36</v>
       </c>
@@ -6635,7 +6655,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="36">
         <v>37</v>
       </c>
@@ -6644,7 +6664,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="36">
         <v>38</v>
       </c>
@@ -6653,7 +6673,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="36">
         <v>39</v>
       </c>
@@ -6662,7 +6682,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="36">
         <v>40</v>
       </c>
@@ -6671,7 +6691,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="36">
         <v>41</v>
       </c>
@@ -6680,7 +6700,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="36">
         <v>42</v>
       </c>
@@ -6689,7 +6709,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="36">
         <v>43</v>
       </c>
@@ -6698,7 +6718,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="36">
         <v>44</v>
       </c>
@@ -6707,7 +6727,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="36">
         <v>45</v>
       </c>
@@ -6716,7 +6736,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="36">
         <v>46</v>
       </c>
@@ -6725,7 +6745,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="36">
         <v>47</v>
       </c>
@@ -6734,7 +6754,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="36">
         <v>48</v>
       </c>
@@ -6743,7 +6763,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="36">
         <v>49</v>
       </c>
@@ -6752,7 +6772,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="36">
         <v>50</v>
       </c>
@@ -6761,7 +6781,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="36">
         <v>51</v>
       </c>
@@ -6770,7 +6790,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="36">
         <v>52</v>
       </c>
@@ -6779,7 +6799,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="36">
         <v>53</v>
       </c>
@@ -6788,7 +6808,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="36">
         <v>54</v>
       </c>
@@ -6797,7 +6817,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="36">
         <v>55</v>
       </c>
@@ -6806,7 +6826,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="36">
         <v>56</v>
       </c>
@@ -6815,7 +6835,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="36">
         <v>57</v>
       </c>
@@ -6824,7 +6844,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="36">
         <v>58</v>
       </c>
@@ -6833,7 +6853,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="36">
         <v>59</v>
       </c>
@@ -6842,7 +6862,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="36">
         <v>60</v>
       </c>
@@ -6851,7 +6871,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/MARASIGAN, GINALYN.xlsx
+++ b/REGULAR/MARASIGAN, GINALYN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD683D0A-F801-4948-9DFF-413826ED5F09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -24,7 +25,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="70">
   <si>
     <t>PERIOD</t>
   </si>
@@ -242,11 +243,14 @@
   <si>
     <t>4/13,14/2023</t>
   </si>
+  <si>
+    <t>TOTAL LEAVE BALANCE</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1103,7 +1107,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1146,7 +1150,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1210,7 +1214,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1270,7 +1274,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1336,7 +1340,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1399,7 +1403,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1497,7 +1501,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1556,7 +1560,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1621,7 +1625,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1664,7 +1668,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1739,7 +1743,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1925,7 +1929,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1991,7 +1995,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2049,7 +2053,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2115,7 +2119,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2171,7 +2175,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2246,7 +2250,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2289,7 +2293,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2355,7 +2359,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2411,7 +2415,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2509,7 +2513,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2572,7 +2576,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2638,25 +2642,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K142" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K142" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2668,13 +2672,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="DAYS"/>
-    <tableColumn id="2" name="HOURS"/>
-    <tableColumn id="3" name="MINUTES"/>
-    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2683,14 +2687,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2994,7 +2998,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3004,7 +3008,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3012,34 +3016,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K142"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A63" activePane="bottomLeft"/>
+      <pane ySplit="3696" topLeftCell="A66" activePane="bottomLeft"/>
       <selection activeCell="F3" sqref="F3:G3"/>
-      <selection pane="bottomLeft" activeCell="B74" sqref="B74"/>
+      <selection pane="bottomLeft" activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3060,7 +3064,7 @@
       <c r="J2" s="51"/>
       <c r="K2" s="52"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3080,7 +3084,7 @@
       <c r="J3" s="53"/>
       <c r="K3" s="54"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3102,7 +3106,7 @@
       <c r="J4" s="55"/>
       <c r="K4" s="56"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3110,7 +3114,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3123,7 +3127,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="49" t="s">
@@ -3140,7 +3144,7 @@
       <c r="J7" s="49"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3175,7 +3179,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3184,7 +3188,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>42.75</v>
+        <v>44</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3194,12 +3198,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>50.75</v>
+        <v>52</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="47" t="s">
         <v>43</v>
       </c>
@@ -3217,7 +3221,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="39">
         <v>43542</v>
       </c>
@@ -3237,7 +3241,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="39">
         <v>43556</v>
       </c>
@@ -3257,7 +3261,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="39">
         <v>43586</v>
       </c>
@@ -3277,7 +3281,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="39">
         <v>43617</v>
       </c>
@@ -3297,7 +3301,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="39">
         <v>43647</v>
       </c>
@@ -3317,7 +3321,7 @@
       <c r="J15" s="12"/>
       <c r="K15" s="15"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="39">
         <v>43678</v>
       </c>
@@ -3337,7 +3341,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="39">
         <v>43709</v>
       </c>
@@ -3357,7 +3361,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="39">
         <v>43739</v>
       </c>
@@ -3377,7 +3381,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="39">
         <v>43770</v>
       </c>
@@ -3397,7 +3401,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="39">
         <v>43800</v>
       </c>
@@ -3417,7 +3421,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="47" t="s">
         <v>44</v>
       </c>
@@ -3435,7 +3439,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="39">
         <v>43831</v>
       </c>
@@ -3459,7 +3463,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="39">
         <v>43862</v>
       </c>
@@ -3483,7 +3487,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="39">
         <v>43891</v>
       </c>
@@ -3503,7 +3507,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="39">
         <v>43922</v>
       </c>
@@ -3523,7 +3527,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="39">
         <v>43952</v>
       </c>
@@ -3543,7 +3547,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="39">
         <v>43983</v>
       </c>
@@ -3563,7 +3567,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="39">
         <v>44013</v>
       </c>
@@ -3583,7 +3587,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="39">
         <v>44044</v>
       </c>
@@ -3603,7 +3607,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="39">
         <v>44075</v>
       </c>
@@ -3629,7 +3633,7 @@
         <v>44098</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="39">
         <v>44105</v>
       </c>
@@ -3653,7 +3657,7 @@
         <v>44106</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="39">
         <v>44136</v>
       </c>
@@ -3673,7 +3677,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="39">
         <v>44166</v>
       </c>
@@ -3697,7 +3701,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="39"/>
       <c r="B34" s="20" t="s">
         <v>49</v>
@@ -3719,7 +3723,7 @@
         <v>44182</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="47" t="s">
         <v>52</v>
       </c>
@@ -3737,7 +3741,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="48"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="39">
         <v>44197</v>
       </c>
@@ -3761,7 +3765,7 @@
         <v>44214</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="39">
         <v>44228</v>
       </c>
@@ -3781,7 +3785,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="39">
         <v>44256</v>
       </c>
@@ -3801,7 +3805,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="39">
         <v>44287</v>
       </c>
@@ -3821,7 +3825,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="39">
         <v>44317</v>
       </c>
@@ -3841,7 +3845,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="39">
         <v>44348</v>
       </c>
@@ -3861,7 +3865,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="39">
         <v>44378</v>
       </c>
@@ -3881,7 +3885,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="39">
         <v>44409</v>
       </c>
@@ -3901,7 +3905,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="39">
         <v>44440</v>
       </c>
@@ -3921,7 +3925,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="39">
         <v>44470</v>
       </c>
@@ -3947,7 +3951,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="39"/>
       <c r="B46" s="20" t="s">
         <v>55</v>
@@ -3967,7 +3971,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="39"/>
       <c r="B47" s="20" t="s">
         <v>57</v>
@@ -3989,7 +3993,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="39">
         <v>44501</v>
       </c>
@@ -4009,7 +4013,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="39">
         <v>44531</v>
       </c>
@@ -4029,7 +4033,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="47" t="s">
         <v>59</v>
       </c>
@@ -4047,7 +4051,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="39">
         <v>44562</v>
       </c>
@@ -4071,7 +4075,7 @@
         <v>44568</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="39"/>
       <c r="B52" s="20" t="s">
         <v>49</v>
@@ -4091,7 +4095,7 @@
         <v>44574</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="39"/>
       <c r="B53" s="20" t="s">
         <v>60</v>
@@ -4113,7 +4117,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="39"/>
       <c r="B54" s="20" t="s">
         <v>61</v>
@@ -4135,7 +4139,7 @@
         <v>44672</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="39">
         <v>44593</v>
       </c>
@@ -4155,7 +4159,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="39">
         <v>44621</v>
       </c>
@@ -4175,7 +4179,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="39">
         <v>44652</v>
       </c>
@@ -4195,7 +4199,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="39">
         <v>44682</v>
       </c>
@@ -4215,7 +4219,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="39">
         <v>44713</v>
       </c>
@@ -4241,7 +4245,7 @@
         <v>44726</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="39"/>
       <c r="B60" s="20" t="s">
         <v>61</v>
@@ -4263,7 +4267,7 @@
         <v>44672</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="39">
         <v>44743</v>
       </c>
@@ -4283,7 +4287,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="39">
         <v>44774</v>
       </c>
@@ -4303,7 +4307,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="39">
         <v>44805</v>
       </c>
@@ -4323,7 +4327,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="39">
         <v>44835</v>
       </c>
@@ -4349,7 +4353,7 @@
         <v>44855</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="39">
         <v>44866</v>
       </c>
@@ -4369,7 +4373,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="39">
         <v>44896</v>
       </c>
@@ -4395,7 +4399,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="47" t="s">
         <v>64</v>
       </c>
@@ -4413,7 +4417,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="39">
         <v>44927</v>
       </c>
@@ -4437,7 +4441,7 @@
         <v>44935</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="39"/>
       <c r="B69" s="20" t="s">
         <v>49</v>
@@ -4459,7 +4463,7 @@
         <v>44950</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="39">
         <v>44958</v>
       </c>
@@ -4485,7 +4489,7 @@
         <v>44958</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="39">
         <v>44986</v>
       </c>
@@ -4511,22 +4515,24 @@
         <v>44998</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="39">
         <v>45017</v>
       </c>
       <c r="B72" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="C72" s="13"/>
+      <c r="C72" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D72" s="38">
         <v>2</v>
       </c>
       <c r="E72" s="9"/>
       <c r="F72" s="20"/>
-      <c r="G72" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G72" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H72" s="38"/>
       <c r="I72" s="9"/>
@@ -4535,7 +4541,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="39"/>
       <c r="B73" s="20" t="s">
         <v>60</v>
@@ -4557,7 +4563,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="39">
         <v>45047</v>
       </c>
@@ -4575,7 +4581,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="39">
         <v>45078</v>
       </c>
@@ -4593,7 +4599,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="39">
         <v>45108</v>
       </c>
@@ -4611,7 +4617,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="39">
         <v>45139</v>
       </c>
@@ -4629,7 +4635,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="39">
         <v>45170</v>
       </c>
@@ -4647,7 +4653,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="39">
         <v>45200</v>
       </c>
@@ -4665,7 +4671,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="39">
         <v>45231</v>
       </c>
@@ -4683,7 +4689,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="39">
         <v>45261</v>
       </c>
@@ -4701,7 +4707,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="39">
         <v>45292</v>
       </c>
@@ -4719,7 +4725,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="39">
         <v>45323</v>
       </c>
@@ -4737,7 +4743,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="39">
         <v>45352</v>
       </c>
@@ -4755,7 +4761,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="39">
         <v>45383</v>
       </c>
@@ -4773,7 +4779,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="39">
         <v>45413</v>
       </c>
@@ -4791,7 +4797,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="39">
         <v>45444</v>
       </c>
@@ -4809,7 +4815,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="39">
         <v>45474</v>
       </c>
@@ -4827,7 +4833,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="39">
         <v>45505</v>
       </c>
@@ -4845,7 +4851,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="39">
         <v>45536</v>
       </c>
@@ -4863,7 +4869,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="39">
         <v>45566</v>
       </c>
@@ -4881,7 +4887,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="39">
         <v>45597</v>
       </c>
@@ -4899,7 +4905,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="39">
         <v>45627</v>
       </c>
@@ -4917,7 +4923,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="39">
         <v>45658</v>
       </c>
@@ -4935,7 +4941,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="39">
         <v>45689</v>
       </c>
@@ -4953,7 +4959,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="39">
         <v>45717</v>
       </c>
@@ -4971,7 +4977,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="39">
         <v>45748</v>
       </c>
@@ -4989,7 +4995,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="39">
         <v>45778</v>
       </c>
@@ -5007,7 +5013,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="39">
         <v>45809</v>
       </c>
@@ -5025,7 +5031,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="39">
         <v>45839</v>
       </c>
@@ -5043,7 +5049,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="39">
         <v>45870</v>
       </c>
@@ -5061,7 +5067,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="39">
         <v>45901</v>
       </c>
@@ -5079,7 +5085,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="39">
         <v>45931</v>
       </c>
@@ -5097,7 +5103,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="39">
         <v>45962</v>
       </c>
@@ -5115,7 +5121,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="39">
         <v>45992</v>
       </c>
@@ -5133,7 +5139,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="39">
         <v>46023</v>
       </c>
@@ -5151,7 +5157,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="39">
         <v>46054</v>
       </c>
@@ -5169,7 +5175,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="39">
         <v>46082</v>
       </c>
@@ -5187,7 +5193,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="39">
         <v>46113</v>
       </c>
@@ -5205,7 +5211,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="39">
         <v>46143</v>
       </c>
@@ -5223,7 +5229,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="39">
         <v>46174</v>
       </c>
@@ -5241,7 +5247,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="39">
         <v>46204</v>
       </c>
@@ -5259,7 +5265,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="39">
         <v>46235</v>
       </c>
@@ -5277,7 +5283,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="39">
         <v>46266</v>
       </c>
@@ -5295,7 +5301,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="39">
         <v>46296</v>
       </c>
@@ -5313,7 +5319,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="39">
         <v>46327</v>
       </c>
@@ -5331,7 +5337,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="39">
         <v>46357</v>
       </c>
@@ -5349,7 +5355,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="39">
         <v>46388</v>
       </c>
@@ -5367,7 +5373,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="39">
         <v>46419</v>
       </c>
@@ -5385,7 +5391,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="39">
         <v>46447</v>
       </c>
@@ -5403,7 +5409,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="39">
         <v>46478</v>
       </c>
@@ -5421,7 +5427,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="39">
         <v>46508</v>
       </c>
@@ -5439,7 +5445,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="39">
         <v>46539</v>
       </c>
@@ -5457,7 +5463,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="39">
         <v>46569</v>
       </c>
@@ -5475,7 +5481,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="39"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -5491,7 +5497,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="39"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -5507,7 +5513,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="39"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -5523,7 +5529,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="39"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -5539,7 +5545,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="39"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -5555,7 +5561,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="39"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -5571,7 +5577,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="39"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -5587,7 +5593,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="39"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -5603,7 +5609,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="39"/>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -5619,7 +5625,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="39"/>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -5635,7 +5641,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="39"/>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -5651,7 +5657,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="39"/>
       <c r="B136" s="20"/>
       <c r="C136" s="13"/>
@@ -5667,7 +5673,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="39"/>
       <c r="B137" s="20"/>
       <c r="C137" s="13"/>
@@ -5683,7 +5689,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="39"/>
       <c r="B138" s="20"/>
       <c r="C138" s="13"/>
@@ -5699,7 +5705,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="39"/>
       <c r="B139" s="20"/>
       <c r="C139" s="13"/>
@@ -5715,7 +5721,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="39"/>
       <c r="B140" s="20"/>
       <c r="C140" s="13"/>
@@ -5731,7 +5737,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="39"/>
       <c r="B141" s="20"/>
       <c r="C141" s="13"/>
@@ -5747,7 +5753,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="40"/>
       <c r="B142" s="15"/>
       <c r="C142" s="41"/>
@@ -5778,10 +5784,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5804,29 +5810,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="36" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="36" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="59" t="s">
         <v>32</v>
       </c>
@@ -5839,7 +5845,7 @@
       <c r="K1" s="60"/>
       <c r="L1" s="60"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -5868,7 +5874,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3"/>
@@ -5890,17 +5896,20 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="C6" s="37" t="s">
         <v>28</v>
       </c>
@@ -5921,7 +5930,11 @@
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="9">
+        <f>SUM(Sheet1!E9,Sheet1!I9)</f>
+        <v>96</v>
+      </c>
       <c r="C7" s="36">
         <v>1</v>
       </c>
@@ -5948,7 +5961,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="36">
         <v>2</v>
       </c>
@@ -5974,7 +5987,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="36">
         <v>3</v>
       </c>
@@ -6000,7 +6013,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="36">
         <v>4</v>
       </c>
@@ -6026,7 +6039,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="36">
         <v>5</v>
       </c>
@@ -6052,7 +6065,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="36">
         <v>6</v>
       </c>
@@ -6078,7 +6091,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="36">
         <v>7</v>
       </c>
@@ -6104,7 +6117,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="36">
         <v>8</v>
       </c>
@@ -6130,7 +6143,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="36">
         <v>9</v>
       </c>
@@ -6150,7 +6163,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="36">
         <v>10</v>
       </c>
@@ -6170,7 +6183,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="36">
         <v>11</v>
       </c>
@@ -6190,7 +6203,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="36">
         <v>12</v>
       </c>
@@ -6211,7 +6224,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="36">
         <v>13</v>
       </c>
@@ -6232,7 +6245,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="36">
         <v>14</v>
       </c>
@@ -6253,7 +6266,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="36">
         <v>15</v>
       </c>
@@ -6274,7 +6287,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="36">
         <v>16</v>
       </c>
@@ -6295,7 +6308,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="36">
         <v>17</v>
       </c>
@@ -6316,7 +6329,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="36">
         <v>18</v>
       </c>
@@ -6337,7 +6350,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="36">
         <v>19</v>
       </c>
@@ -6358,7 +6371,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="36">
         <v>20</v>
       </c>
@@ -6379,7 +6392,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="36">
         <v>21</v>
       </c>
@@ -6400,7 +6413,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="36">
         <v>22</v>
       </c>
@@ -6421,7 +6434,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="36">
         <v>23</v>
       </c>
@@ -6442,7 +6455,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="36">
         <v>24</v>
       </c>
@@ -6463,7 +6476,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="36">
         <v>25</v>
       </c>
@@ -6484,7 +6497,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="36">
         <v>26</v>
       </c>
@@ -6505,7 +6518,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="36">
         <v>27</v>
       </c>
@@ -6526,7 +6539,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="36">
         <v>28</v>
       </c>
@@ -6547,7 +6560,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="36">
         <v>29</v>
       </c>
@@ -6568,7 +6581,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="36">
         <v>30</v>
       </c>
@@ -6589,7 +6602,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="36">
         <v>31</v>
       </c>
@@ -6610,7 +6623,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="36">
         <v>32</v>
       </c>
@@ -6619,7 +6632,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="36">
         <v>33</v>
       </c>
@@ -6628,7 +6641,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="36">
         <v>34</v>
       </c>
@@ -6637,7 +6650,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="36">
         <v>35</v>
       </c>
@@ -6646,7 +6659,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="36">
         <v>36</v>
       </c>
@@ -6655,7 +6668,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="36">
         <v>37</v>
       </c>
@@ -6664,7 +6677,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="36">
         <v>38</v>
       </c>
@@ -6673,7 +6686,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="36">
         <v>39</v>
       </c>
@@ -6682,7 +6695,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="36">
         <v>40</v>
       </c>
@@ -6691,7 +6704,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="36">
         <v>41</v>
       </c>
@@ -6700,7 +6713,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="36">
         <v>42</v>
       </c>
@@ -6709,7 +6722,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="36">
         <v>43</v>
       </c>
@@ -6718,7 +6731,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="36">
         <v>44</v>
       </c>
@@ -6727,7 +6740,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="36">
         <v>45</v>
       </c>
@@ -6736,7 +6749,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="36">
         <v>46</v>
       </c>
@@ -6745,7 +6758,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="36">
         <v>47</v>
       </c>
@@ -6754,7 +6767,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="36">
         <v>48</v>
       </c>
@@ -6763,7 +6776,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="36">
         <v>49</v>
       </c>
@@ -6772,7 +6785,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="36">
         <v>50</v>
       </c>
@@ -6781,7 +6794,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="36">
         <v>51</v>
       </c>
@@ -6790,7 +6803,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="36">
         <v>52</v>
       </c>
@@ -6799,7 +6812,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="36">
         <v>53</v>
       </c>
@@ -6808,7 +6821,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="36">
         <v>54</v>
       </c>
@@ -6817,7 +6830,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="36">
         <v>55</v>
       </c>
@@ -6826,7 +6839,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="36">
         <v>56</v>
       </c>
@@ -6835,7 +6848,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="36">
         <v>57</v>
       </c>
@@ -6844,7 +6857,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="36">
         <v>58</v>
       </c>
@@ -6853,7 +6866,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="36">
         <v>59</v>
       </c>
@@ -6862,7 +6875,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="36">
         <v>60</v>
       </c>
@@ -6871,7 +6884,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/MARASIGAN, GINALYN.xlsx
+++ b/REGULAR/MARASIGAN, GINALYN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD683D0A-F801-4948-9DFF-413826ED5F09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="71">
   <si>
     <t>PERIOD</t>
   </si>
@@ -245,12 +244,15 @@
   </si>
   <si>
     <t>TOTAL LEAVE BALANCE</t>
+  </si>
+  <si>
+    <t>6/8-9/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1107,7 +1109,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1150,7 +1152,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1214,7 +1216,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1274,7 +1276,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1340,7 +1342,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1403,7 +1405,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1501,7 +1503,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1560,7 +1562,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1625,7 +1627,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1668,7 +1670,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1743,7 +1745,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1929,7 +1931,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1995,7 +1997,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2053,7 +2055,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2119,7 +2121,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2175,7 +2177,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2250,7 +2252,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2293,7 +2295,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2359,7 +2361,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2415,7 +2417,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2513,7 +2515,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2576,7 +2578,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2642,25 +2644,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K142" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K142" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2672,13 +2674,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2687,14 +2689,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2998,7 +3000,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3008,7 +3010,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3016,34 +3018,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K142"/>
+  <dimension ref="A2:M142"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A66" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A66" activePane="bottomLeft"/>
       <selection activeCell="F3" sqref="F3:G3"/>
-      <selection pane="bottomLeft" activeCell="C76" sqref="C76"/>
+      <selection pane="bottomLeft" activeCell="M78" sqref="M78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3064,7 +3066,7 @@
       <c r="J2" s="51"/>
       <c r="K2" s="52"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3084,7 +3086,7 @@
       <c r="J3" s="53"/>
       <c r="K3" s="54"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3106,7 +3108,7 @@
       <c r="J4" s="55"/>
       <c r="K4" s="56"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3114,7 +3116,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3127,7 +3129,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="49" t="s">
@@ -3144,7 +3146,7 @@
       <c r="J7" s="49"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3179,7 +3181,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3188,7 +3190,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>44</v>
+        <v>45.25</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3198,12 +3200,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>52</v>
+        <v>51.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="47" t="s">
         <v>43</v>
       </c>
@@ -3221,7 +3223,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="39">
         <v>43542</v>
       </c>
@@ -3241,7 +3243,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="39">
         <v>43556</v>
       </c>
@@ -3261,7 +3263,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="39">
         <v>43586</v>
       </c>
@@ -3281,7 +3283,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="39">
         <v>43617</v>
       </c>
@@ -3301,7 +3303,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="39">
         <v>43647</v>
       </c>
@@ -3321,7 +3323,7 @@
       <c r="J15" s="12"/>
       <c r="K15" s="15"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="39">
         <v>43678</v>
       </c>
@@ -3341,7 +3343,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="39">
         <v>43709</v>
       </c>
@@ -3361,7 +3363,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="39">
         <v>43739</v>
       </c>
@@ -3381,7 +3383,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="39">
         <v>43770</v>
       </c>
@@ -3401,7 +3403,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="39">
         <v>43800</v>
       </c>
@@ -3421,7 +3423,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="47" t="s">
         <v>44</v>
       </c>
@@ -3439,7 +3441,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="39">
         <v>43831</v>
       </c>
@@ -3463,7 +3465,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="39">
         <v>43862</v>
       </c>
@@ -3487,7 +3489,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="39">
         <v>43891</v>
       </c>
@@ -3507,7 +3509,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="39">
         <v>43922</v>
       </c>
@@ -3527,7 +3529,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="39">
         <v>43952</v>
       </c>
@@ -3547,7 +3549,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="39">
         <v>43983</v>
       </c>
@@ -3567,7 +3569,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="39">
         <v>44013</v>
       </c>
@@ -3587,7 +3589,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="39">
         <v>44044</v>
       </c>
@@ -3607,7 +3609,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="39">
         <v>44075</v>
       </c>
@@ -3633,7 +3635,7 @@
         <v>44098</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="39">
         <v>44105</v>
       </c>
@@ -3657,7 +3659,7 @@
         <v>44106</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="39">
         <v>44136</v>
       </c>
@@ -3677,7 +3679,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="39">
         <v>44166</v>
       </c>
@@ -3701,7 +3703,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="39"/>
       <c r="B34" s="20" t="s">
         <v>49</v>
@@ -3723,7 +3725,7 @@
         <v>44182</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="47" t="s">
         <v>52</v>
       </c>
@@ -3741,7 +3743,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="48"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="39">
         <v>44197</v>
       </c>
@@ -3765,7 +3767,7 @@
         <v>44214</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="39">
         <v>44228</v>
       </c>
@@ -3785,7 +3787,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="39">
         <v>44256</v>
       </c>
@@ -3805,7 +3807,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="39">
         <v>44287</v>
       </c>
@@ -3825,7 +3827,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="39">
         <v>44317</v>
       </c>
@@ -3845,7 +3847,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="39">
         <v>44348</v>
       </c>
@@ -3865,7 +3867,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="39">
         <v>44378</v>
       </c>
@@ -3885,7 +3887,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="39">
         <v>44409</v>
       </c>
@@ -3905,7 +3907,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="39">
         <v>44440</v>
       </c>
@@ -3925,7 +3927,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="39">
         <v>44470</v>
       </c>
@@ -3951,7 +3953,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="39"/>
       <c r="B46" s="20" t="s">
         <v>55</v>
@@ -3971,7 +3973,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="39"/>
       <c r="B47" s="20" t="s">
         <v>57</v>
@@ -3993,7 +3995,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="39">
         <v>44501</v>
       </c>
@@ -4013,7 +4015,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="39">
         <v>44531</v>
       </c>
@@ -4033,7 +4035,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="47" t="s">
         <v>59</v>
       </c>
@@ -4051,7 +4053,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="39">
         <v>44562</v>
       </c>
@@ -4075,7 +4077,7 @@
         <v>44568</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="39"/>
       <c r="B52" s="20" t="s">
         <v>49</v>
@@ -4095,7 +4097,7 @@
         <v>44574</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="39"/>
       <c r="B53" s="20" t="s">
         <v>60</v>
@@ -4117,7 +4119,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="39"/>
       <c r="B54" s="20" t="s">
         <v>61</v>
@@ -4139,7 +4141,7 @@
         <v>44672</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="39">
         <v>44593</v>
       </c>
@@ -4159,7 +4161,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="39">
         <v>44621</v>
       </c>
@@ -4179,7 +4181,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="39">
         <v>44652</v>
       </c>
@@ -4199,7 +4201,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="39">
         <v>44682</v>
       </c>
@@ -4219,7 +4221,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="39">
         <v>44713</v>
       </c>
@@ -4245,7 +4247,7 @@
         <v>44726</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="39"/>
       <c r="B60" s="20" t="s">
         <v>61</v>
@@ -4267,7 +4269,7 @@
         <v>44672</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="39">
         <v>44743</v>
       </c>
@@ -4287,7 +4289,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="39">
         <v>44774</v>
       </c>
@@ -4307,7 +4309,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="39">
         <v>44805</v>
       </c>
@@ -4327,7 +4329,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="39">
         <v>44835</v>
       </c>
@@ -4353,7 +4355,7 @@
         <v>44855</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="39">
         <v>44866</v>
       </c>
@@ -4373,7 +4375,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="39">
         <v>44896</v>
       </c>
@@ -4399,7 +4401,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="47" t="s">
         <v>64</v>
       </c>
@@ -4417,7 +4419,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="39">
         <v>44927</v>
       </c>
@@ -4441,7 +4443,7 @@
         <v>44935</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="39"/>
       <c r="B69" s="20" t="s">
         <v>49</v>
@@ -4463,7 +4465,7 @@
         <v>44950</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="39">
         <v>44958</v>
       </c>
@@ -4489,7 +4491,7 @@
         <v>44958</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="39">
         <v>44986</v>
       </c>
@@ -4515,7 +4517,7 @@
         <v>44998</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="39">
         <v>45017</v>
       </c>
@@ -4541,7 +4543,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="39"/>
       <c r="B73" s="20" t="s">
         <v>60</v>
@@ -4563,29 +4565,33 @@
         <v>68</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="39">
         <v>45047</v>
       </c>
       <c r="B74" s="20"/>
-      <c r="C74" s="13"/>
+      <c r="C74" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D74" s="38"/>
       <c r="E74" s="9"/>
       <c r="F74" s="20"/>
-      <c r="G74" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G74" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H74" s="38"/>
       <c r="I74" s="9"/>
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="39">
         <v>45078</v>
       </c>
-      <c r="B75" s="20"/>
+      <c r="B75" s="20" t="s">
+        <v>60</v>
+      </c>
       <c r="C75" s="13"/>
       <c r="D75" s="38"/>
       <c r="E75" s="9"/>
@@ -4594,12 +4600,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H75" s="38"/>
+      <c r="H75" s="38">
+        <v>2</v>
+      </c>
       <c r="I75" s="9"/>
       <c r="J75" s="11"/>
-      <c r="K75" s="20"/>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K75" s="20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="39">
         <v>45108</v>
       </c>
@@ -4617,7 +4627,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="39">
         <v>45139</v>
       </c>
@@ -4634,8 +4644,12 @@
       <c r="I77" s="9"/>
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M77">
+        <f>3*34</f>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="39">
         <v>45170</v>
       </c>
@@ -4653,7 +4667,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="39">
         <v>45200</v>
       </c>
@@ -4671,7 +4685,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="39">
         <v>45231</v>
       </c>
@@ -4689,7 +4703,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="39">
         <v>45261</v>
       </c>
@@ -4707,7 +4721,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="39">
         <v>45292</v>
       </c>
@@ -4725,7 +4739,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="39">
         <v>45323</v>
       </c>
@@ -4743,7 +4757,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="39">
         <v>45352</v>
       </c>
@@ -4761,7 +4775,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="39">
         <v>45383</v>
       </c>
@@ -4779,7 +4793,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="39">
         <v>45413</v>
       </c>
@@ -4797,7 +4811,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="39">
         <v>45444</v>
       </c>
@@ -4815,7 +4829,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="39">
         <v>45474</v>
       </c>
@@ -4833,7 +4847,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="39">
         <v>45505</v>
       </c>
@@ -4851,7 +4865,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="39">
         <v>45536</v>
       </c>
@@ -4869,7 +4883,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="39">
         <v>45566</v>
       </c>
@@ -4887,7 +4901,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="39">
         <v>45597</v>
       </c>
@@ -4905,7 +4919,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="39">
         <v>45627</v>
       </c>
@@ -4923,7 +4937,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="39">
         <v>45658</v>
       </c>
@@ -4941,7 +4955,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="39">
         <v>45689</v>
       </c>
@@ -4959,7 +4973,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="39">
         <v>45717</v>
       </c>
@@ -4977,7 +4991,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="39">
         <v>45748</v>
       </c>
@@ -4995,7 +5009,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="39">
         <v>45778</v>
       </c>
@@ -5013,7 +5027,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="39">
         <v>45809</v>
       </c>
@@ -5031,7 +5045,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="39">
         <v>45839</v>
       </c>
@@ -5049,7 +5063,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="39">
         <v>45870</v>
       </c>
@@ -5067,7 +5081,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="39">
         <v>45901</v>
       </c>
@@ -5085,7 +5099,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="39">
         <v>45931</v>
       </c>
@@ -5103,7 +5117,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="39">
         <v>45962</v>
       </c>
@@ -5121,7 +5135,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="39">
         <v>45992</v>
       </c>
@@ -5139,7 +5153,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="39">
         <v>46023</v>
       </c>
@@ -5157,7 +5171,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="39">
         <v>46054</v>
       </c>
@@ -5175,7 +5189,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="39">
         <v>46082</v>
       </c>
@@ -5193,7 +5207,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="39">
         <v>46113</v>
       </c>
@@ -5211,7 +5225,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="39">
         <v>46143</v>
       </c>
@@ -5229,7 +5243,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="39">
         <v>46174</v>
       </c>
@@ -5247,7 +5261,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="39">
         <v>46204</v>
       </c>
@@ -5265,7 +5279,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="39">
         <v>46235</v>
       </c>
@@ -5283,7 +5297,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="39">
         <v>46266</v>
       </c>
@@ -5301,7 +5315,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="39">
         <v>46296</v>
       </c>
@@ -5319,7 +5333,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="39">
         <v>46327</v>
       </c>
@@ -5337,7 +5351,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="39">
         <v>46357</v>
       </c>
@@ -5355,7 +5369,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="39">
         <v>46388</v>
       </c>
@@ -5373,7 +5387,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="39">
         <v>46419</v>
       </c>
@@ -5391,7 +5405,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="39">
         <v>46447</v>
       </c>
@@ -5409,7 +5423,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="39">
         <v>46478</v>
       </c>
@@ -5427,7 +5441,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="39">
         <v>46508</v>
       </c>
@@ -5445,7 +5459,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="39">
         <v>46539</v>
       </c>
@@ -5463,7 +5477,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="39">
         <v>46569</v>
       </c>
@@ -5481,7 +5495,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="39"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -5497,7 +5511,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="39"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -5513,7 +5527,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="39"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -5529,7 +5543,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="39"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -5545,7 +5559,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="39"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -5561,7 +5575,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="39"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -5577,7 +5591,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="39"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -5593,7 +5607,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="39"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -5609,7 +5623,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="39"/>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -5625,7 +5639,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="39"/>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -5641,7 +5655,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="39"/>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -5657,7 +5671,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="39"/>
       <c r="B136" s="20"/>
       <c r="C136" s="13"/>
@@ -5673,7 +5687,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="39"/>
       <c r="B137" s="20"/>
       <c r="C137" s="13"/>
@@ -5689,7 +5703,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="39"/>
       <c r="B138" s="20"/>
       <c r="C138" s="13"/>
@@ -5705,7 +5719,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="39"/>
       <c r="B139" s="20"/>
       <c r="C139" s="13"/>
@@ -5721,7 +5735,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="39"/>
       <c r="B140" s="20"/>
       <c r="C140" s="13"/>
@@ -5737,7 +5751,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="39"/>
       <c r="B141" s="20"/>
       <c r="C141" s="13"/>
@@ -5753,7 +5767,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40"/>
       <c r="B142" s="15"/>
       <c r="C142" s="41"/>
@@ -5784,10 +5798,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5810,7 +5824,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -5818,21 +5832,21 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="36" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="36" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="59" t="s">
         <v>32</v>
       </c>
@@ -5845,7 +5859,7 @@
       <c r="K1" s="60"/>
       <c r="L1" s="60"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -5874,7 +5888,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3"/>
@@ -5896,17 +5910,17 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>69</v>
       </c>
@@ -5930,10 +5944,10 @@
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>96</v>
+        <v>96.5</v>
       </c>
       <c r="C7" s="36">
         <v>1</v>
@@ -5961,7 +5975,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="36">
         <v>2</v>
       </c>
@@ -5987,7 +6001,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="36">
         <v>3</v>
       </c>
@@ -6013,7 +6027,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="36">
         <v>4</v>
       </c>
@@ -6039,7 +6053,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="36">
         <v>5</v>
       </c>
@@ -6065,7 +6079,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="36">
         <v>6</v>
       </c>
@@ -6091,7 +6105,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="36">
         <v>7</v>
       </c>
@@ -6117,7 +6131,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="36">
         <v>8</v>
       </c>
@@ -6143,7 +6157,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="36">
         <v>9</v>
       </c>
@@ -6163,7 +6177,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="36">
         <v>10</v>
       </c>
@@ -6183,7 +6197,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="36">
         <v>11</v>
       </c>
@@ -6203,7 +6217,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="36">
         <v>12</v>
       </c>
@@ -6224,7 +6238,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="36">
         <v>13</v>
       </c>
@@ -6245,7 +6259,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="36">
         <v>14</v>
       </c>
@@ -6266,7 +6280,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="36">
         <v>15</v>
       </c>
@@ -6287,7 +6301,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="36">
         <v>16</v>
       </c>
@@ -6308,7 +6322,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="36">
         <v>17</v>
       </c>
@@ -6329,7 +6343,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="36">
         <v>18</v>
       </c>
@@ -6350,7 +6364,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="36">
         <v>19</v>
       </c>
@@ -6371,7 +6385,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="36">
         <v>20</v>
       </c>
@@ -6392,7 +6406,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="36">
         <v>21</v>
       </c>
@@ -6413,7 +6427,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="36">
         <v>22</v>
       </c>
@@ -6434,7 +6448,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="36">
         <v>23</v>
       </c>
@@ -6455,7 +6469,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="36">
         <v>24</v>
       </c>
@@ -6476,7 +6490,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="36">
         <v>25</v>
       </c>
@@ -6497,7 +6511,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="36">
         <v>26</v>
       </c>
@@ -6518,7 +6532,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="36">
         <v>27</v>
       </c>
@@ -6539,7 +6553,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="36">
         <v>28</v>
       </c>
@@ -6560,7 +6574,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="36">
         <v>29</v>
       </c>
@@ -6581,7 +6595,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="36">
         <v>30</v>
       </c>
@@ -6602,7 +6616,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="36">
         <v>31</v>
       </c>
@@ -6623,7 +6637,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="36">
         <v>32</v>
       </c>
@@ -6632,7 +6646,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="36">
         <v>33</v>
       </c>
@@ -6641,7 +6655,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="36">
         <v>34</v>
       </c>
@@ -6650,7 +6664,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="36">
         <v>35</v>
       </c>
@@ -6659,7 +6673,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="36">
         <v>36</v>
       </c>
@@ -6668,7 +6682,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="36">
         <v>37</v>
       </c>
@@ -6677,7 +6691,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="36">
         <v>38</v>
       </c>
@@ -6686,7 +6700,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="36">
         <v>39</v>
       </c>
@@ -6695,7 +6709,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="36">
         <v>40</v>
       </c>
@@ -6704,7 +6718,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="36">
         <v>41</v>
       </c>
@@ -6713,7 +6727,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="36">
         <v>42</v>
       </c>
@@ -6722,7 +6736,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="36">
         <v>43</v>
       </c>
@@ -6731,7 +6745,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="36">
         <v>44</v>
       </c>
@@ -6740,7 +6754,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="36">
         <v>45</v>
       </c>
@@ -6749,7 +6763,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="36">
         <v>46</v>
       </c>
@@ -6758,7 +6772,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="36">
         <v>47</v>
       </c>
@@ -6767,7 +6781,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="36">
         <v>48</v>
       </c>
@@ -6776,7 +6790,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="36">
         <v>49</v>
       </c>
@@ -6785,7 +6799,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="36">
         <v>50</v>
       </c>
@@ -6794,7 +6808,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="36">
         <v>51</v>
       </c>
@@ -6803,7 +6817,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="36">
         <v>52</v>
       </c>
@@ -6812,7 +6826,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="36">
         <v>53</v>
       </c>
@@ -6821,7 +6835,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="36">
         <v>54</v>
       </c>
@@ -6830,7 +6844,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="36">
         <v>55</v>
       </c>
@@ -6839,7 +6853,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="36">
         <v>56</v>
       </c>
@@ -6848,7 +6862,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="36">
         <v>57</v>
       </c>
@@ -6857,7 +6871,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="36">
         <v>58</v>
       </c>
@@ -6866,7 +6880,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="36">
         <v>59</v>
       </c>
@@ -6875,7 +6889,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="36">
         <v>60</v>
       </c>
@@ -6884,7 +6898,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/MARASIGAN, GINALYN.xlsx
+++ b/REGULAR/MARASIGAN, GINALYN.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="71">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1109,7 +1109,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1152,7 +1152,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1216,7 +1216,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1276,7 +1276,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1342,7 +1342,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1405,7 +1405,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1503,7 +1503,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1562,7 +1562,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1627,7 +1627,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1670,7 +1670,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1745,7 +1745,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1931,7 +1931,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1997,7 +1997,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2055,7 +2055,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2121,7 +2121,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2177,7 +2177,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2252,7 +2252,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2295,7 +2295,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2361,7 +2361,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2417,7 +2417,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2515,7 +2515,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2578,7 +2578,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2644,7 +2644,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K142" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K143" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -3022,12 +3022,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:M142"/>
+  <dimension ref="A2:K143"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A66" activePane="bottomLeft"/>
       <selection activeCell="F3" sqref="F3:G3"/>
-      <selection pane="bottomLeft" activeCell="M78" sqref="M78"/>
+      <selection pane="bottomLeft" activeCell="K76" sqref="K76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3190,7 +3190,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>45.25</v>
+        <v>46.5</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3200,7 +3200,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>51.25</v>
+        <v>51.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4355,7 +4355,7 @@
         <v>44855</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="39">
         <v>44866</v>
       </c>
@@ -4375,7 +4375,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="39">
         <v>44896</v>
       </c>
@@ -4401,7 +4401,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="47" t="s">
         <v>64</v>
       </c>
@@ -4419,7 +4419,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="39">
         <v>44927</v>
       </c>
@@ -4443,7 +4443,7 @@
         <v>44935</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="39"/>
       <c r="B69" s="20" t="s">
         <v>49</v>
@@ -4465,7 +4465,7 @@
         <v>44950</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="39">
         <v>44958</v>
       </c>
@@ -4491,7 +4491,7 @@
         <v>44958</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="39">
         <v>44986</v>
       </c>
@@ -4517,7 +4517,7 @@
         <v>44998</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="39">
         <v>45017</v>
       </c>
@@ -4543,7 +4543,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="39"/>
       <c r="B73" s="20" t="s">
         <v>60</v>
@@ -4565,7 +4565,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="39">
         <v>45047</v>
       </c>
@@ -4585,20 +4585,22 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="39">
         <v>45078</v>
       </c>
       <c r="B75" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="C75" s="13"/>
+      <c r="C75" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D75" s="38"/>
       <c r="E75" s="9"/>
       <c r="F75" s="20"/>
-      <c r="G75" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G75" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H75" s="38">
         <v>2</v>
@@ -4609,11 +4611,11 @@
         <v>70</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A76" s="39">
-        <v>45108</v>
-      </c>
-      <c r="B76" s="20"/>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76" s="39"/>
+      <c r="B76" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="C76" s="13"/>
       <c r="D76" s="38"/>
       <c r="E76" s="9"/>
@@ -4622,14 +4624,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H76" s="38"/>
+      <c r="H76" s="38">
+        <v>1</v>
+      </c>
       <c r="I76" s="9"/>
       <c r="J76" s="11"/>
-      <c r="K76" s="20"/>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K76" s="48">
+        <v>45107</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="39">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -4644,14 +4650,10 @@
       <c r="I77" s="9"/>
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
-      <c r="M77">
-        <f>3*34</f>
-        <v>102</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="39">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -4667,9 +4669,9 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="39">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -4685,9 +4687,9 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="39">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -4705,7 +4707,7 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="39">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -4723,7 +4725,7 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="39">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -4741,7 +4743,7 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="39">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -4759,7 +4761,7 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="39">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -4777,7 +4779,7 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="39">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -4795,7 +4797,7 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="39">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -4813,7 +4815,7 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="39">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -4831,7 +4833,7 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="39">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -4849,7 +4851,7 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="39">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -4867,7 +4869,7 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="39">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -4885,7 +4887,7 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="39">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -4903,7 +4905,7 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="39">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -4921,7 +4923,7 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="39">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -4939,7 +4941,7 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="39">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -4957,7 +4959,7 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="39">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -4975,7 +4977,7 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="39">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -4993,7 +4995,7 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="39">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -5011,7 +5013,7 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="39">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -5029,7 +5031,7 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="39">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -5047,7 +5049,7 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="39">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -5065,7 +5067,7 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="39">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -5083,7 +5085,7 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="39">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -5101,7 +5103,7 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="39">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -5119,7 +5121,7 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="39">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -5137,7 +5139,7 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="39">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -5155,7 +5157,7 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="39">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -5173,7 +5175,7 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="39">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -5191,7 +5193,7 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="39">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -5209,7 +5211,7 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="39">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -5227,7 +5229,7 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="39">
-        <v>46143</v>
+        <v>46113</v>
       </c>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -5245,7 +5247,7 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="39">
-        <v>46174</v>
+        <v>46143</v>
       </c>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -5263,7 +5265,7 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="39">
-        <v>46204</v>
+        <v>46174</v>
       </c>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -5281,7 +5283,7 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="39">
-        <v>46235</v>
+        <v>46204</v>
       </c>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -5299,7 +5301,7 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="39">
-        <v>46266</v>
+        <v>46235</v>
       </c>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -5317,7 +5319,7 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="39">
-        <v>46296</v>
+        <v>46266</v>
       </c>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -5335,7 +5337,7 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="39">
-        <v>46327</v>
+        <v>46296</v>
       </c>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -5353,7 +5355,7 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="39">
-        <v>46357</v>
+        <v>46327</v>
       </c>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -5371,7 +5373,7 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="39">
-        <v>46388</v>
+        <v>46357</v>
       </c>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -5389,7 +5391,7 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="39">
-        <v>46419</v>
+        <v>46388</v>
       </c>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -5407,7 +5409,7 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="39">
-        <v>46447</v>
+        <v>46419</v>
       </c>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -5425,7 +5427,7 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="39">
-        <v>46478</v>
+        <v>46447</v>
       </c>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -5443,7 +5445,7 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="39">
-        <v>46508</v>
+        <v>46478</v>
       </c>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -5461,7 +5463,7 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="39">
-        <v>46539</v>
+        <v>46508</v>
       </c>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -5479,7 +5481,7 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="39">
-        <v>46569</v>
+        <v>46539</v>
       </c>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -5496,7 +5498,9 @@
       <c r="K124" s="20"/>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A125" s="39"/>
+      <c r="A125" s="39">
+        <v>46569</v>
+      </c>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
       <c r="D125" s="38"/>
@@ -5768,20 +5772,36 @@
       <c r="K141" s="20"/>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A142" s="40"/>
-      <c r="B142" s="15"/>
-      <c r="C142" s="41"/>
-      <c r="D142" s="42"/>
+      <c r="A142" s="39"/>
+      <c r="B142" s="20"/>
+      <c r="C142" s="13"/>
+      <c r="D142" s="38"/>
       <c r="E142" s="9"/>
-      <c r="F142" s="15"/>
-      <c r="G142" s="41" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H142" s="42"/>
+      <c r="F142" s="20"/>
+      <c r="G142" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H142" s="38"/>
       <c r="I142" s="9"/>
-      <c r="J142" s="12"/>
-      <c r="K142" s="15"/>
+      <c r="J142" s="11"/>
+      <c r="K142" s="20"/>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A143" s="40"/>
+      <c r="B143" s="15"/>
+      <c r="C143" s="41"/>
+      <c r="D143" s="42"/>
+      <c r="E143" s="9"/>
+      <c r="F143" s="15"/>
+      <c r="G143" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H143" s="42"/>
+      <c r="I143" s="9"/>
+      <c r="J143" s="12"/>
+      <c r="K143" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -5947,7 +5967,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>96.5</v>
+        <v>98</v>
       </c>
       <c r="C7" s="36">
         <v>1</v>

--- a/REGULAR/MARASIGAN, GINALYN.xlsx
+++ b/REGULAR/MARASIGAN, GINALYN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="72">
   <si>
     <t>PERIOD</t>
   </si>
@@ -247,6 +247,9 @@
   </si>
   <si>
     <t>6/8-9/2023</t>
+  </si>
+  <si>
+    <t>7/6,11/2023</t>
   </si>
 </sst>
 </file>
@@ -2644,7 +2647,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K143" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K144" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -3022,12 +3025,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K143"/>
+  <dimension ref="A2:K144"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A66" activePane="bottomLeft"/>
       <selection activeCell="F3" sqref="F3:G3"/>
-      <selection pane="bottomLeft" activeCell="K76" sqref="K76"/>
+      <selection pane="bottomLeft" activeCell="I78" sqref="I78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3200,7 +3203,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>51.5</v>
+        <v>49.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4637,7 +4640,9 @@
       <c r="A77" s="39">
         <v>45108</v>
       </c>
-      <c r="B77" s="20"/>
+      <c r="B77" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="C77" s="13"/>
       <c r="D77" s="38"/>
       <c r="E77" s="9"/>
@@ -4649,13 +4654,15 @@
       <c r="H77" s="38"/>
       <c r="I77" s="9"/>
       <c r="J77" s="11"/>
-      <c r="K77" s="20"/>
+      <c r="K77" s="48">
+        <v>45128</v>
+      </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="39">
-        <v>45139</v>
-      </c>
-      <c r="B78" s="20"/>
+      <c r="A78" s="39"/>
+      <c r="B78" s="20" t="s">
+        <v>60</v>
+      </c>
       <c r="C78" s="13"/>
       <c r="D78" s="38"/>
       <c r="E78" s="9"/>
@@ -4664,14 +4671,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H78" s="38"/>
+      <c r="H78" s="38">
+        <v>2</v>
+      </c>
       <c r="I78" s="9"/>
       <c r="J78" s="11"/>
-      <c r="K78" s="20"/>
+      <c r="K78" s="48" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="39">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -4689,7 +4700,7 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="39">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -4707,7 +4718,7 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="39">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -4725,7 +4736,7 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="39">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -4743,7 +4754,7 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="39">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -4761,7 +4772,7 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="39">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -4779,7 +4790,7 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="39">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -4797,7 +4808,7 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="39">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -4815,7 +4826,7 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="39">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -4833,7 +4844,7 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="39">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -4851,7 +4862,7 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="39">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -4869,7 +4880,7 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="39">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -4887,7 +4898,7 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="39">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -4905,7 +4916,7 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="39">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -4923,7 +4934,7 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="39">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -4941,7 +4952,7 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="39">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -4959,7 +4970,7 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="39">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -4977,7 +4988,7 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="39">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -4995,7 +5006,7 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="39">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -5013,7 +5024,7 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="39">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -5031,7 +5042,7 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="39">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -5049,7 +5060,7 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="39">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -5067,7 +5078,7 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="39">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -5085,7 +5096,7 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="39">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -5103,7 +5114,7 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="39">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -5121,7 +5132,7 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="39">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -5139,7 +5150,7 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="39">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -5157,7 +5168,7 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="39">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -5175,7 +5186,7 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="39">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -5193,7 +5204,7 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="39">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -5211,7 +5222,7 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="39">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -5229,7 +5240,7 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="39">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -5247,7 +5258,7 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="39">
-        <v>46143</v>
+        <v>46113</v>
       </c>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -5265,7 +5276,7 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="39">
-        <v>46174</v>
+        <v>46143</v>
       </c>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -5283,7 +5294,7 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="39">
-        <v>46204</v>
+        <v>46174</v>
       </c>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -5301,7 +5312,7 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="39">
-        <v>46235</v>
+        <v>46204</v>
       </c>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -5319,7 +5330,7 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="39">
-        <v>46266</v>
+        <v>46235</v>
       </c>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -5337,7 +5348,7 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="39">
-        <v>46296</v>
+        <v>46266</v>
       </c>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -5355,7 +5366,7 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="39">
-        <v>46327</v>
+        <v>46296</v>
       </c>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -5373,7 +5384,7 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="39">
-        <v>46357</v>
+        <v>46327</v>
       </c>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -5391,7 +5402,7 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="39">
-        <v>46388</v>
+        <v>46357</v>
       </c>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -5409,7 +5420,7 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="39">
-        <v>46419</v>
+        <v>46388</v>
       </c>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -5427,7 +5438,7 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="39">
-        <v>46447</v>
+        <v>46419</v>
       </c>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -5445,7 +5456,7 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="39">
-        <v>46478</v>
+        <v>46447</v>
       </c>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -5463,7 +5474,7 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="39">
-        <v>46508</v>
+        <v>46478</v>
       </c>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -5481,7 +5492,7 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="39">
-        <v>46539</v>
+        <v>46508</v>
       </c>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -5499,7 +5510,7 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="39">
-        <v>46569</v>
+        <v>46539</v>
       </c>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -5516,7 +5527,9 @@
       <c r="K125" s="20"/>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A126" s="39"/>
+      <c r="A126" s="39">
+        <v>46569</v>
+      </c>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
       <c r="D126" s="38"/>
@@ -5788,20 +5801,36 @@
       <c r="K142" s="20"/>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A143" s="40"/>
-      <c r="B143" s="15"/>
-      <c r="C143" s="41"/>
-      <c r="D143" s="42"/>
+      <c r="A143" s="39"/>
+      <c r="B143" s="20"/>
+      <c r="C143" s="13"/>
+      <c r="D143" s="38"/>
       <c r="E143" s="9"/>
-      <c r="F143" s="15"/>
-      <c r="G143" s="41" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H143" s="42"/>
+      <c r="F143" s="20"/>
+      <c r="G143" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H143" s="38"/>
       <c r="I143" s="9"/>
-      <c r="J143" s="12"/>
-      <c r="K143" s="15"/>
+      <c r="J143" s="11"/>
+      <c r="K143" s="20"/>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A144" s="40"/>
+      <c r="B144" s="15"/>
+      <c r="C144" s="41"/>
+      <c r="D144" s="42"/>
+      <c r="E144" s="9"/>
+      <c r="F144" s="15"/>
+      <c r="G144" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H144" s="42"/>
+      <c r="I144" s="9"/>
+      <c r="J144" s="12"/>
+      <c r="K144" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -5967,7 +5996,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C7" s="36">
         <v>1</v>
